--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>나는 글을 쓰는 문학가나 방송작가 아니면 시인이 되고 싶다. (문예창작)</t>
   </si>
@@ -230,31 +230,15 @@
     <t>다음 1~23까지 문장 중에서 관심있는 순서로 3개를 선택하여 답란 제1순위, 제2순위, 제3순위에 해당되는 번호를 체크해 주세요.</t>
   </si>
   <si>
-    <r>
-      <t>나는 피부관리사나 이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>미용사가 되어 유명해지고 싶다.    --</t>
-    </r>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddsdfsdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C25"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1049,16 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
